--- a/normativa/Anexos/L05T02C03/L05T02C03A05.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="HOJA 2" sheetId="2" r:id="rId1"/>
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -733,28 +733,28 @@
   <dimension ref="A1:AC45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="3.7109375" style="1"/>
+    <col min="13" max="13" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
@@ -817,7 +817,7 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="F3" s="13" t="s">
         <v>8</v>
@@ -985,7 +985,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>7</v>
       </c>
@@ -1885,7 +1885,7 @@
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
-RECOPILACIÓN DE NORMAS PARA BANCOS Y ENTIDADES FINANCIERAS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
+RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
     <oddFooter>&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
@@ -1901,7 +1901,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
